--- a/db/AiCity-79-GroupBuying拷貝.xlsx
+++ b/db/AiCity-79-GroupBuying拷貝.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C42A29-C079-5149-A91E-2081E315A8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45AAF7-4BD7-A544-9C4B-DFAEE71086E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="720" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -1647,10 +1647,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>陽光 橘 , 陽光 桃, 陽光 黑 , 陽光 黃 , 陽光 藍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>$560  - M高33cm 寬36cm, $780 - L高43 寬46cm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1679,23 +1675,6 @@
   </si>
   <si>
     <t>0018</t>
-  </si>
-  <si>
-    <r>
-      <t>泰國私廚⁠Khiang四川風味辣椒醬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>泰國私廚⁠Khiang四川風味辣椒醬</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2695,156 +2674,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>這是一件具時尚感又</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">環保的商品&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Elephlifestyle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是泰國知名寢具品牌旗下的品牌，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>泰國本土設計公司設計出來的產品！
-每ㄧ款系列包包特色就是袋子收納起來後是一隻可愛的大象。
-可以當包包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>也可以當</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>購物袋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>收納後又可以當吊飾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😄 &lt;br&gt;
-⭕️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不用時把袋子通通塞到大象的肚子裡後，就是一個可愛的吊飾！輕巧防水，可愛又實用</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>如果來泰國去</t>
     </r>
     <r>
@@ -3020,14 +2849,6 @@
       </rPr>
       <t>清爽。</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香味：綠茶花香（綠色）,
-香味：櫻花（粉紅色）,
-香味：茉莉花谷（白色）,
-香氣：蓮花香（黃色）,
-香氣：莓果香（粉色)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4356,8 +4177,8 @@
           &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
     &lt;/ol&gt;
     &lt;div class="carousel-inner"&gt;
-         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0020-大地藍藤編手提袋-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0020-大地藍藤編手提袋-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0021-超推防蚊轉-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0021-超推防蚊轉-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
      &lt;/div&gt;
     &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0021" role="button" data-slide="prev"&gt;
          &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
@@ -4370,12 +4191,316 @@
 &lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泰國私廚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⁠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Khiang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>四川風味辣椒醬</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>香味：綠茶花香（綠色）,  櫻花（粉紅色）, 茉莉花谷（白色）, 蓮花香（黃色）, 莓果香（粉色)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陽光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>橘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藍</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是一件具時尚感又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">環保的商品&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Elephlifestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是泰國知名寢具品牌旗下的品牌，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>泰國本土設計公司設計出來的產品！
+每ㄧ款系列包包特色就是袋子收納起來後是一隻可愛的大象。&lt;br&gt;&lt;br&gt;
+可以當包包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也可以當</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>購物袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>收納後又可以當吊飾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😄 &lt;br&gt;
+⭕️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不用時把袋子通通塞到大象的肚子裡後，就是一個可愛的吊飾！輕巧防水，可愛又實用</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4444,6 +4569,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4470,7 +4621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4488,6 +4639,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4806,10 +4958,10 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -5295,25 +5447,25 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>118</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6">
@@ -5333,25 +5485,25 @@
         <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="340">
@@ -5371,25 +5523,25 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="323">
@@ -5415,19 +5567,19 @@
         <v>130</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="323">
@@ -5450,19 +5602,19 @@
         <v>133</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6">
@@ -5481,31 +5633,31 @@
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="J17" s="4" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -5514,36 +5666,36 @@
         <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409.6">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -5551,37 +5703,37 @@
       <c r="C19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>142</v>
+      <c r="D19" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="34">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -5590,36 +5742,36 @@
         <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="341">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -5628,36 +5780,36 @@
         <v>116</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="341">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -5666,31 +5818,31 @@
         <v>116</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>119</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying拷貝.xlsx
+++ b/db/AiCity-79-GroupBuying拷貝.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFCC99-86CD-6A45-94F3-31B9BEFA3637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20720983-0AD9-AB40-877A-193897175A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1660" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="1360" yWindow="2520" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5061,10 +5061,10 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
